--- a/Docs importantes/Experimento 1/distintosAlphaCriterio3.xlsx
+++ b/Docs importantes/Experimento 1/distintosAlphaCriterio3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas\Docs importantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06307ED8-C68D-4172-949F-0752FB9FB36C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFD90BD-7B6F-42B9-81F2-F21E378EEA3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88CC1C0F-4D0F-4EDB-9077-78AD0C5F7F8E}"/>
   </bookViews>
@@ -192,7 +192,7 @@
     <t>MDG-b_12_n500_m50.txt</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time(s)</t>
   </si>
 </sst>
 </file>
@@ -229,15 +229,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -245,22 +257,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +610,7 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,172 +647,173 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <f>AVERAGE(B9:B27)</f>
         <v>0.87436207668955712</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C9:C27)</f>
         <v>6.4037482822103226E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <f t="shared" si="0"/>
         <v>0.61607098292530516</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <f t="shared" si="0"/>
         <v>9903.0878542513947</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>22.894736842105264</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>0.96570727265413414</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <f t="shared" si="0"/>
         <v>771.4910955898896</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>161.15600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <f>AVERAGE(I9:I27)</f>
         <v>0.63574682888307732</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J9:J27)</f>
         <v>0.13519959974574064</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <f t="shared" si="1"/>
         <v>0.45866906989159256</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
         <v>9142.4226800612578</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>0.97058607103135852</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>752.00575210876229</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="7">
         <v>166.52500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <f>AVERAGE(P9:P27)</f>
         <v>0.26193428512647055</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <f t="shared" ref="C5:H5" si="2">AVERAGE(Q9:Q27)</f>
         <v>0.25629766260766068</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <f t="shared" si="2"/>
         <v>0.34621192068508949</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <f t="shared" si="2"/>
         <v>10228.044536620773</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <f t="shared" si="2"/>
         <v>20.684210526315791</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <f t="shared" si="2"/>
         <v>0.97695824044794877</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="8">
         <f t="shared" si="2"/>
         <v>774.99081094574512</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="9">
         <v>158.87799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <f>AVERAGE(W9:W27)</f>
         <v>0.52951381443543277</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <f t="shared" ref="C6:H6" si="3">AVERAGE(X9:X27)</f>
         <v>0.23879449131459057</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <f t="shared" si="3"/>
         <v>0.36392862886248556</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <f t="shared" si="3"/>
         <v>10221.029183740458</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <f t="shared" si="3"/>
         <v>18.684210526315791</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <f t="shared" si="3"/>
         <v>0.9725739357026818</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <f t="shared" si="3"/>
         <v>754.47560824331288</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>170.809</v>
       </c>
     </row>

--- a/Docs importantes/Experimento 1/distintosAlphaCriterio3.xlsx
+++ b/Docs importantes/Experimento 1/distintosAlphaCriterio3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFD90BD-7B6F-42B9-81F2-F21E378EEA3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB61139-DFE0-40ED-91EF-931D1E96F603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88CC1C0F-4D0F-4EDB-9077-78AD0C5F7F8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88CC1C0F-4D0F-4EDB-9077-78AD0C5F7F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>GRASPConstructive_Criterion3_Seed_13_SolCount_100_alpha_0.25</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>GKD-c_1_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-b_12_n500_m50.txt</t>
   </si>
   <si>
     <t>Time(s)</t>
@@ -610,43 +607,43 @@
   <dimension ref="A2:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -670,154 +667,154 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6">
         <f>AVERAGE(B9:B27)</f>
-        <v>0.87436207668955712</v>
+        <v>0.87606274761675484</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C9:C27)</f>
-        <v>6.4037482822103226E-2</v>
+        <v>6.4546769806535773E-2</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>0.61607098292530516</v>
+        <v>0.61441751901374797</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>9903.0878542513947</v>
+        <v>4731.8433436293053</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>22.894736842105264</v>
+        <v>22.388888888888889</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0.96570727265413414</v>
+        <v>0.96434742351074954</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>771.4910955898896</v>
+        <v>388.5772091121413</v>
       </c>
       <c r="I3" s="7">
         <v>161.15600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
         <f>AVERAGE(I9:I27)</f>
-        <v>0.63574682888307732</v>
+        <v>0.63711547987040884</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J9:J27)</f>
-        <v>0.13519959974574064</v>
+        <v>0.13981783764729158</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="1"/>
-        <v>0.45866906989159256</v>
+        <v>0.43785438858927361</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>9142.4226800612578</v>
+        <v>4152.5334840275773</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22.277777777777779</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>0.97058607103135852</v>
+        <v>0.96952832712504666</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>752.00575210876229</v>
+        <v>381.1796542813268</v>
       </c>
       <c r="I4" s="7">
         <v>166.52500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8">
         <f>AVERAGE(P9:P27)</f>
-        <v>0.26193428512647055</v>
+        <v>0.26825573718082185</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" ref="C5:H5" si="2">AVERAGE(Q9:Q27)</f>
-        <v>0.25629766260766068</v>
+        <v>0.26590786185525805</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="2"/>
-        <v>0.34621192068508949</v>
+        <v>0.32377924961203891</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="2"/>
-        <v>10228.044536620773</v>
+        <v>4355.0425914405396</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>20.684210526315791</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="2"/>
-        <v>0.97695824044794877</v>
+        <v>0.97603947378342171</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="2"/>
-        <v>774.99081094574512</v>
+        <v>380.1686116603471</v>
       </c>
       <c r="I5" s="9">
         <v>158.87799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6">
         <f>AVERAGE(W9:W27)</f>
-        <v>0.52951381443543277</v>
+        <v>0.53402703401134766</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" ref="C6:H6" si="3">AVERAGE(X9:X27)</f>
-        <v>0.23879449131459057</v>
+        <v>0.24827372051515806</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="3"/>
-        <v>0.36392862886248556</v>
+        <v>0.37039354474950531</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="3"/>
-        <v>10221.029183740458</v>
+        <v>4668.8375433110386</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="3"/>
-        <v>18.684210526315791</v>
+        <v>18.111111111111111</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="3"/>
-        <v>0.9725739357026818</v>
+        <v>0.97152502642087646</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="3"/>
-        <v>754.47560824331288</v>
+        <v>387.46987971723087</v>
       </c>
       <c r="I6" s="7">
         <v>170.809</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -906,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -995,7 +992,7 @@
         <v>147.837568427847</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>109.69426400078299</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>428.29497472721903</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>166.21324136107199</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>234.758052835901</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>241.507308916906</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1529,7 +1526,7 @@
         <v>107.530593960856</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1618,7 +1615,7 @@
         <v>106.20005309688899</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>240.08791323617899</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1796,7 +1793,7 @@
         <v>239.13887213301001</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>953.97063907136601</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>228.25271951647801</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2063,7 +2060,7 @@
         <v>1603.17449300883</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2152,7 +2149,7 @@
         <v>1489.8676031945399</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2241,7 +2238,7 @@
         <v>163.61703585104399</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>158.17216255631701</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>186.90725072277201</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2508,94 +2505,35 @@
         <v>169.23308829214699</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5.4870317102317601E-2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="E27" s="1">
-        <v>102985.48904544899</v>
-      </c>
-      <c r="F27" s="1">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.99018455723505905</v>
-      </c>
-      <c r="H27" s="1">
-        <v>7663.9410521893597</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="J27" s="1">
-        <v>5.2071317517823998E-2</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="L27" s="1">
-        <v>98960.428208667494</v>
-      </c>
-      <c r="M27" s="1">
-        <v>36</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.98962546134496998</v>
-      </c>
-      <c r="O27" s="1">
-        <v>7426.8755130026002</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>8.3314076150907496E-2</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="S27" s="1">
-        <v>115942.079549865</v>
-      </c>
-      <c r="T27" s="1">
-        <v>27</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0.99349604040943496</v>
-      </c>
-      <c r="V27" s="1">
-        <v>7881.7903980829096</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0.44827586206896503</v>
-      </c>
-      <c r="X27" s="1">
-        <v>6.8168365704376094E-2</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0.24756014289612999</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>110160.47871147</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0.99145430277517799</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>7360.57872171279</v>
-      </c>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
